--- a/data/in/demo.xlsx
+++ b/data/in/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\repos\personal-finance-for-newbies\data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DC84AC-3EBC-4897-8435-F4BB46E7D9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989DC2A6-05B9-419B-A272-154E528E6B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions History" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="56">
   <si>
     <t>Exchange</t>
   </si>
@@ -436,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F65" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A1:F65" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F67" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A1:F67" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker" dataDxfId="11"/>
@@ -761,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2019,25 +2019,104 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="6">
+        <v>45628</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>82.795000000000002</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="2"/>
+      <c r="A64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="6">
+        <v>45628</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>191.16</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="6">
+        <v>45628</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>169.96</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="6">
+        <v>45628</v>
+      </c>
+      <c r="D66" s="5">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2">
+        <v>16.364000000000001</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="6">
+        <v>45628</v>
+      </c>
+      <c r="D67" s="5">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2">
+        <v>19.152000000000001</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2052,7 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/data/in/demo.xlsx
+++ b/data/in/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\repos\personal-finance-for-newbies\data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989DC2A6-05B9-419B-A272-154E528E6B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8A3F72-0FAE-488E-A8F3-EFC4CAB6F67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="56">
   <si>
     <t>Exchange</t>
   </si>
@@ -310,6 +310,28 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -331,28 +353,6 @@
       <font>
         <b val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,29 +436,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F67" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A1:F67" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="A1:F72" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F72" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transaction Date" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shares" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price (€)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fees (€)" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exchange" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ticker" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transaction Date" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shares" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price (€)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fees (€)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E18" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="AnagraficaTitoli" displayName="AnagraficaTitoli" ref="A1:E18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Exchange" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ticker" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Security Name" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Asset Class" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Macro Asset Class" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Exchange" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ticker" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Security Name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Asset Class" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Macro Asset Class" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -761,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:F67"/>
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2115,6 +2115,106 @@
         <v>19.152000000000001</v>
       </c>
       <c r="F67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="6">
+        <v>45659</v>
+      </c>
+      <c r="D68" s="5">
+        <v>51</v>
+      </c>
+      <c r="E68" s="2">
+        <v>19.053899999999999</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="6">
+        <v>45691</v>
+      </c>
+      <c r="D69" s="5">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2">
+        <v>40.965000000000003</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="6">
+        <v>45691</v>
+      </c>
+      <c r="D70" s="5">
+        <v>10</v>
+      </c>
+      <c r="E70" s="2">
+        <v>134.13999999999999</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="6">
+        <v>45691</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>197.22</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="6">
+        <v>45691</v>
+      </c>
+      <c r="D72" s="5">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2">
+        <v>167.73</v>
+      </c>
+      <c r="F72" s="2">
         <v>0</v>
       </c>
     </row>
